--- a/public/template/DivisionMapping-ICB.xlsx
+++ b/public/template/DivisionMapping-ICB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25428"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuanyuan.wang\Desktop\GBS B&amp;B\业务主数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24072AE2-AACB-4E2B-8880-D8320F5CD018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F53734-4CD2-4A27-BCAD-016E4AFD0AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>CEPCDivision</t>
   </si>
@@ -55,30 +53,12 @@
   <si>
     <t>CMP</t>
   </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>TRE</t>
-  </si>
-  <si>
-    <t>SPG</t>
-  </si>
-  <si>
-    <t>HSC</t>
-  </si>
-  <si>
-    <t>IOT</t>
-  </si>
-  <si>
-    <t>ADV</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +136,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,20 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -467,7 +447,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -476,60 +456,6 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -543,15 +469,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010060BC9B362EF8C043A0CC255B74856BF3" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c50d01044c98fb8ecbd144f89ed44461">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e6d8e88-43bd-44c5-af4a-b3f409258f8a" xmlns:ns3="c7e0163d-619a-4037-a3c2-ba840964746c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1e26bed6c9607303f71b5c6e0324231" ns2:_="" ns3:_="">
     <xsd:import namespace="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
@@ -716,14 +633,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F853A6EB-CA2B-4FF3-8B20-6AFD54C33515}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F853A6EB-CA2B-4FF3-8B20-6AFD54C33515}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4455081-A810-432D-8C7E-81DF3E86469F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1EE77F-8F8C-40C8-8DAF-F4B0C261B927}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e6d8e88-43bd-44c5-af4a-b3f409258f8a"/>
+    <ds:schemaRef ds:uri="c7e0163d-619a-4037-a3c2-ba840964746c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1EE77F-8F8C-40C8-8DAF-F4B0C261B927}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4455081-A810-432D-8C7E-81DF3E86469F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>